--- a/biology/Zoologie/Aipysurus_laevis/Aipysurus_laevis.xlsx
+++ b/biology/Zoologie/Aipysurus_laevis/Aipysurus_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aipysurus laevis est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aipysurus laevis est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans l'océan Indien et l'océan Pacifique dans les eaux de l'Indonésie, de la Papouasie-Nouvelle-Guinée, de la Nouvelle-Calédonie et de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans l'océan Indien et l'océan Pacifique dans les eaux de l'Indonésie, de la Papouasie-Nouvelle-Guinée, de la Nouvelle-Calédonie et de l'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux et vivipare[1]. Il possède des photorécepteurs dans la peau de la queue, ce qui lui permet de détecter la lumière et s'assurer probablement qu'il est complètement caché, y compris sa queue, à l'intérieur des trous de corail où il vit dans la journée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux et vivipare. Il possède des photorécepteurs dans la peau de la queue, ce qui lui permet de détecter la lumière et s'assurer probablement qu'il est complètement caché, y compris sa queue, à l'intérieur des trous de corail où il vit dans la journée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Aipysurus laevis pooleorum[3] a été élevée au rang d'espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Aipysurus laevis pooleorum a été élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lacépède, 1804 : Mémoire sur plusieurs animaux de la Nouvelle-Hollande dont la description n’a pas encore été publiée. Annales du Muséum National d’Histoire Naturelle, Paris, vol. 4, p. 184-211 (texte intégral).</t>
         </is>
